--- a/Sprint 4/SysUt14 Gr 2 Burn up chart - holdes oppdatert av SM.xlsx
+++ b/Sprint 4/SysUt14 Gr 2 Burn up chart - holdes oppdatert av SM.xlsx
@@ -647,29 +647,38 @@
                 <c:pt idx="4">
                   <c:v>44.5</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="94150016"/>
-        <c:axId val="94160000"/>
+        <c:axId val="50834432"/>
+        <c:axId val="51251072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94150016"/>
+        <c:axId val="50834432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94160000"/>
+        <c:crossAx val="51251072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94160000"/>
+        <c:axId val="51251072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="140"/>
@@ -679,7 +688,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94150016"/>
+        <c:crossAx val="50834432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -693,7 +702,7 @@
           <c:x val="0.85726259133462956"/>
           <c:y val="0.42329864488726682"/>
           <c:w val="0.1364510697882074"/>
-          <c:h val="0.15646062275472206"/>
+          <c:h val="0.15646062275472208"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -1088,7 +1097,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1188,9 +1197,15 @@
       <c r="I2" s="7">
         <v>5.5</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="J2" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="K2" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="L2" s="7">
+        <v>5.5</v>
+      </c>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
@@ -1227,9 +1242,15 @@
       <c r="I3" s="7">
         <v>0</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
@@ -1265,9 +1286,15 @@
       <c r="I4" s="9">
         <v>0</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
@@ -1304,9 +1331,15 @@
       <c r="I5" s="9">
         <v>2.5</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="J5" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K5" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="L5" s="9">
+        <v>2.5</v>
+      </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
@@ -1341,9 +1374,15 @@
       <c r="I6" s="9">
         <v>0</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
@@ -1378,9 +1417,15 @@
       <c r="I7" s="9">
         <v>2</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="J7" s="9">
+        <v>2</v>
+      </c>
+      <c r="K7" s="9">
+        <v>2</v>
+      </c>
+      <c r="L7" s="9">
+        <v>2</v>
+      </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
@@ -1417,9 +1462,15 @@
       <c r="I8" s="9">
         <v>0</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0</v>
+      </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
@@ -1454,9 +1505,15 @@
       <c r="I9" s="9">
         <v>1</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="J9" s="9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="9">
+        <v>1</v>
+      </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
@@ -1493,9 +1550,15 @@
       <c r="I10" s="7">
         <v>3</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="J10" s="7">
+        <v>3</v>
+      </c>
+      <c r="K10" s="7">
+        <v>3</v>
+      </c>
+      <c r="L10" s="7">
+        <v>3</v>
+      </c>
       <c r="M10" s="23"/>
       <c r="N10" s="23"/>
       <c r="O10" s="23"/>
@@ -1530,9 +1593,15 @@
       <c r="I11" s="7">
         <v>3</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="J11" s="7">
+        <v>3</v>
+      </c>
+      <c r="K11" s="7">
+        <v>3</v>
+      </c>
+      <c r="L11" s="7">
+        <v>3</v>
+      </c>
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
@@ -1569,9 +1638,15 @@
       <c r="I12" s="7">
         <v>0</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
       <c r="O12" s="23"/>
@@ -1606,9 +1681,15 @@
       <c r="I13" s="7">
         <v>0</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
       <c r="M13" s="23"/>
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
@@ -1643,9 +1724,15 @@
       <c r="I14" s="7">
         <v>0</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
       <c r="M14" s="23"/>
       <c r="N14" s="23"/>
       <c r="O14" s="23"/>
@@ -1680,9 +1767,15 @@
       <c r="I15" s="7">
         <v>0</v>
       </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
@@ -1719,9 +1812,15 @@
       <c r="I16" s="7">
         <v>2</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
+      <c r="J16" s="7">
+        <v>2</v>
+      </c>
+      <c r="K16" s="7">
+        <v>2</v>
+      </c>
+      <c r="L16" s="7">
+        <v>2</v>
+      </c>
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
@@ -1756,9 +1855,15 @@
       <c r="I17" s="7">
         <v>0</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0</v>
+      </c>
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
@@ -1795,9 +1900,15 @@
       <c r="I18" s="7">
         <v>1.5</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="J18" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="K18" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="L18" s="7">
+        <v>1.5</v>
+      </c>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
@@ -1834,9 +1945,15 @@
       <c r="I19" s="7">
         <v>3</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="J19" s="7">
+        <v>3</v>
+      </c>
+      <c r="K19" s="7">
+        <v>3</v>
+      </c>
+      <c r="L19" s="7">
+        <v>3</v>
+      </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -1873,9 +1990,15 @@
       <c r="I20" s="7">
         <v>16</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="J20" s="7">
+        <v>16</v>
+      </c>
+      <c r="K20" s="7">
+        <v>16</v>
+      </c>
+      <c r="L20" s="7">
+        <v>16</v>
+      </c>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
@@ -1912,9 +2035,15 @@
       <c r="I21" s="7">
         <v>5</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+      <c r="J21" s="7">
+        <v>5</v>
+      </c>
+      <c r="K21" s="7">
+        <v>5</v>
+      </c>
+      <c r="L21" s="7">
+        <v>5</v>
+      </c>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
@@ -2022,9 +2151,18 @@
         <f>SUM(I1:I21)</f>
         <v>44.5</v>
       </c>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
+      <c r="J23" s="18">
+        <f>SUM(J1:J21)</f>
+        <v>44.5</v>
+      </c>
+      <c r="K23" s="18">
+        <f>SUM(K1:K21)</f>
+        <v>44.5</v>
+      </c>
+      <c r="L23" s="18">
+        <f>SUM(L1:L21)</f>
+        <v>44.5</v>
+      </c>
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
       <c r="O23" s="18"/>

--- a/Sprint 4/SysUt14 Gr 2 Burn up chart - holdes oppdatert av SM.xlsx
+++ b/Sprint 4/SysUt14 Gr 2 Burn up chart - holdes oppdatert av SM.xlsx
@@ -654,41 +654,41 @@
                   <c:v>44.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44.5</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="50834432"/>
-        <c:axId val="51251072"/>
+        <c:axId val="94791936"/>
+        <c:axId val="94793728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50834432"/>
+        <c:axId val="94791936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51251072"/>
+        <c:crossAx val="94793728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51251072"/>
+        <c:axId val="94793728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="140"/>
+          <c:max val="200"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50834432"/>
+        <c:crossAx val="94791936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -702,7 +702,7 @@
           <c:x val="0.85726259133462956"/>
           <c:y val="0.42329864488726682"/>
           <c:w val="0.1364510697882074"/>
-          <c:h val="0.15646062275472208"/>
+          <c:h val="0.15646062275472211"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -1097,7 +1097,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="9">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
@@ -1819,7 +1819,7 @@
         <v>2</v>
       </c>
       <c r="L16" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
@@ -1907,7 +1907,7 @@
         <v>1.5</v>
       </c>
       <c r="L18" s="7">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
@@ -2042,7 +2042,7 @@
         <v>5</v>
       </c>
       <c r="L21" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
@@ -2132,36 +2132,36 @@
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="18">
-        <f>SUM(E1:E21)</f>
+        <f t="shared" ref="E23:L23" si="0">SUM(E1:E21)</f>
         <v>0</v>
       </c>
       <c r="F23" s="18">
-        <f>SUM(F1:F21)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="G23" s="18">
-        <f>SUM(G1:G21)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="H23" s="18">
-        <f>SUM(H1:H21)</f>
+        <f t="shared" si="0"/>
         <v>42.5</v>
       </c>
       <c r="I23" s="18">
-        <f>SUM(I1:I21)</f>
+        <f t="shared" si="0"/>
         <v>44.5</v>
       </c>
       <c r="J23" s="18">
-        <f>SUM(J1:J21)</f>
+        <f t="shared" si="0"/>
         <v>44.5</v>
       </c>
       <c r="K23" s="18">
-        <f>SUM(K1:K21)</f>
+        <f t="shared" si="0"/>
         <v>44.5</v>
       </c>
       <c r="L23" s="18">
-        <f>SUM(L1:L21)</f>
-        <v>44.5</v>
+        <f t="shared" si="0"/>
+        <v>66</v>
       </c>
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>

--- a/Sprint 4/SysUt14 Gr 2 Burn up chart - holdes oppdatert av SM.xlsx
+++ b/Sprint 4/SysUt14 Gr 2 Burn up chart - holdes oppdatert av SM.xlsx
@@ -654,31 +654,31 @@
                   <c:v>44.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66</c:v>
+                  <c:v>44.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="94791936"/>
-        <c:axId val="94793728"/>
+        <c:axId val="51274112"/>
+        <c:axId val="51275648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94791936"/>
+        <c:axId val="51274112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94793728"/>
+        <c:crossAx val="51275648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94793728"/>
+        <c:axId val="51275648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -688,7 +688,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94791936"/>
+        <c:crossAx val="51274112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -702,7 +702,7 @@
           <c:x val="0.85726259133462956"/>
           <c:y val="0.42329864488726682"/>
           <c:w val="0.1364510697882074"/>
-          <c:h val="0.15646062275472211"/>
+          <c:h val="0.15646062275472214"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -1097,7 +1097,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1206,7 +1206,9 @@
       <c r="L2" s="7">
         <v>5.5</v>
       </c>
-      <c r="M2" s="7"/>
+      <c r="M2" s="7">
+        <v>5.5</v>
+      </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
@@ -1249,6 +1251,9 @@
         <v>0</v>
       </c>
       <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
         <v>2</v>
       </c>
       <c r="N3" s="7"/>
@@ -1293,9 +1298,11 @@
         <v>0</v>
       </c>
       <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
         <v>2</v>
       </c>
-      <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="7"/>
@@ -1340,7 +1347,9 @@
       <c r="L5" s="9">
         <v>2.5</v>
       </c>
-      <c r="M5" s="9"/>
+      <c r="M5" s="9">
+        <v>2.5</v>
+      </c>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="7"/>
@@ -1381,9 +1390,11 @@
         <v>0</v>
       </c>
       <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
         <v>2.5</v>
       </c>
-      <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="7"/>
@@ -1426,7 +1437,9 @@
       <c r="L7" s="9">
         <v>2</v>
       </c>
-      <c r="M7" s="9"/>
+      <c r="M7" s="9">
+        <v>2</v>
+      </c>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="7"/>
@@ -1471,7 +1484,9 @@
       <c r="L8" s="9">
         <v>0</v>
       </c>
-      <c r="M8" s="9"/>
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="7"/>
@@ -1514,7 +1529,9 @@
       <c r="L9" s="9">
         <v>1</v>
       </c>
-      <c r="M9" s="9"/>
+      <c r="M9" s="9">
+        <v>1</v>
+      </c>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="7"/>
@@ -1559,7 +1576,9 @@
       <c r="L10" s="7">
         <v>3</v>
       </c>
-      <c r="M10" s="23"/>
+      <c r="M10" s="7">
+        <v>3</v>
+      </c>
       <c r="N10" s="23"/>
       <c r="O10" s="23"/>
       <c r="P10" s="7"/>
@@ -1602,7 +1621,9 @@
       <c r="L11" s="7">
         <v>3</v>
       </c>
-      <c r="M11" s="23"/>
+      <c r="M11" s="7">
+        <v>3</v>
+      </c>
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
       <c r="P11" s="7"/>
@@ -1647,7 +1668,9 @@
       <c r="L12" s="7">
         <v>0</v>
       </c>
-      <c r="M12" s="23"/>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
       <c r="N12" s="23"/>
       <c r="O12" s="23"/>
       <c r="P12" s="7"/>
@@ -1690,7 +1713,9 @@
       <c r="L13" s="7">
         <v>0</v>
       </c>
-      <c r="M13" s="23"/>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
       <c r="P13" s="7"/>
@@ -1733,7 +1758,9 @@
       <c r="L14" s="7">
         <v>0</v>
       </c>
-      <c r="M14" s="23"/>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
       <c r="N14" s="23"/>
       <c r="O14" s="23"/>
       <c r="P14" s="7"/>
@@ -1776,7 +1803,9 @@
       <c r="L15" s="7">
         <v>0</v>
       </c>
-      <c r="M15" s="23"/>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
       <c r="P15" s="7"/>
@@ -1819,9 +1848,11 @@
         <v>2</v>
       </c>
       <c r="L16" s="7">
+        <v>2</v>
+      </c>
+      <c r="M16" s="7">
         <v>5</v>
       </c>
-      <c r="M16" s="23"/>
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
       <c r="P16" s="7"/>
@@ -1864,7 +1895,9 @@
       <c r="L17" s="7">
         <v>0</v>
       </c>
-      <c r="M17" s="23"/>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
       <c r="P17" s="7"/>
@@ -1907,9 +1940,11 @@
         <v>1.5</v>
       </c>
       <c r="L18" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="M18" s="7">
         <v>5.5</v>
       </c>
-      <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
       <c r="P18" s="7"/>
@@ -1954,7 +1989,9 @@
       <c r="L19" s="7">
         <v>3</v>
       </c>
-      <c r="M19" s="7"/>
+      <c r="M19" s="7">
+        <v>3</v>
+      </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
@@ -1999,7 +2036,9 @@
       <c r="L20" s="7">
         <v>16</v>
       </c>
-      <c r="M20" s="23"/>
+      <c r="M20" s="7">
+        <v>16</v>
+      </c>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
       <c r="P20" s="7"/>
@@ -2042,9 +2081,11 @@
         <v>5</v>
       </c>
       <c r="L21" s="7">
+        <v>5</v>
+      </c>
+      <c r="M21" s="7">
         <v>13</v>
       </c>
-      <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
       <c r="P21" s="7"/>
@@ -2161,7 +2202,7 @@
       </c>
       <c r="L23" s="18">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>44.5</v>
       </c>
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>

--- a/Sprint 4/SysUt14 Gr 2 Burn up chart - holdes oppdatert av SM.xlsx
+++ b/Sprint 4/SysUt14 Gr 2 Burn up chart - holdes oppdatert av SM.xlsx
@@ -438,7 +438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -498,9 +498,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -656,29 +653,38 @@
                 <c:pt idx="7">
                   <c:v>44.5</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51274112"/>
-        <c:axId val="51275648"/>
+        <c:axId val="91608960"/>
+        <c:axId val="91610496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51274112"/>
+        <c:axId val="91608960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51275648"/>
+        <c:crossAx val="91610496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51275648"/>
+        <c:axId val="91610496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -688,7 +694,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51274112"/>
+        <c:crossAx val="91608960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -702,7 +708,7 @@
           <c:x val="0.85726259133462956"/>
           <c:y val="0.42329864488726682"/>
           <c:w val="0.1364510697882074"/>
-          <c:h val="0.15646062275472214"/>
+          <c:h val="0.15646062275472222"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -1097,7 +1103,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1209,8 +1215,12 @@
       <c r="M2" s="7">
         <v>5.5</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="N2" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="O2" s="7">
+        <v>5.5</v>
+      </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
@@ -1256,8 +1266,12 @@
       <c r="M3" s="7">
         <v>2</v>
       </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
+      <c r="N3" s="7">
+        <v>2</v>
+      </c>
+      <c r="O3" s="7">
+        <v>2</v>
+      </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -1303,8 +1317,12 @@
       <c r="M4" s="9">
         <v>2</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
+      <c r="N4" s="9">
+        <v>2</v>
+      </c>
+      <c r="O4" s="9">
+        <v>2</v>
+      </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
@@ -1350,8 +1368,12 @@
       <c r="M5" s="9">
         <v>2.5</v>
       </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
+      <c r="N5" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="O5" s="9">
+        <v>2.5</v>
+      </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
@@ -1395,8 +1417,12 @@
       <c r="M6" s="9">
         <v>2.5</v>
       </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
+      <c r="N6" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="O6" s="9">
+        <v>2.5</v>
+      </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
@@ -1440,8 +1466,12 @@
       <c r="M7" s="9">
         <v>2</v>
       </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
+      <c r="N7" s="9">
+        <v>2</v>
+      </c>
+      <c r="O7" s="9">
+        <v>2</v>
+      </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
@@ -1487,8 +1517,12 @@
       <c r="M8" s="9">
         <v>0</v>
       </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
+      <c r="N8" s="9">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9">
+        <v>2.5</v>
+      </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
@@ -1532,8 +1566,12 @@
       <c r="M9" s="9">
         <v>1</v>
       </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
+      <c r="N9" s="9">
+        <v>1</v>
+      </c>
+      <c r="O9" s="9">
+        <v>1</v>
+      </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
@@ -1579,8 +1617,12 @@
       <c r="M10" s="7">
         <v>3</v>
       </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
+      <c r="N10" s="7">
+        <v>3</v>
+      </c>
+      <c r="O10" s="7">
+        <v>3</v>
+      </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
@@ -1624,8 +1666,12 @@
       <c r="M11" s="7">
         <v>3</v>
       </c>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
+      <c r="N11" s="7">
+        <v>3</v>
+      </c>
+      <c r="O11" s="7">
+        <v>3</v>
+      </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
@@ -1671,8 +1717,12 @@
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
@@ -1716,8 +1766,12 @@
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <v>2</v>
+      </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
@@ -1761,8 +1815,12 @@
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
@@ -1806,8 +1864,12 @@
       <c r="M15" s="7">
         <v>0</v>
       </c>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
@@ -1853,8 +1915,12 @@
       <c r="M16" s="7">
         <v>5</v>
       </c>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
+      <c r="N16" s="7">
+        <v>5</v>
+      </c>
+      <c r="O16" s="7">
+        <v>5</v>
+      </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
@@ -1898,8 +1964,12 @@
       <c r="M17" s="7">
         <v>0</v>
       </c>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0</v>
+      </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
@@ -1945,8 +2015,12 @@
       <c r="M18" s="7">
         <v>5.5</v>
       </c>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
+      <c r="N18" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="O18" s="7">
+        <v>10</v>
+      </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
@@ -1992,8 +2066,12 @@
       <c r="M19" s="7">
         <v>3</v>
       </c>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
+      <c r="N19" s="7">
+        <v>3</v>
+      </c>
+      <c r="O19" s="7">
+        <v>3</v>
+      </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
@@ -2039,8 +2117,12 @@
       <c r="M20" s="7">
         <v>16</v>
       </c>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
+      <c r="N20" s="7">
+        <v>16</v>
+      </c>
+      <c r="O20" s="7">
+        <v>16</v>
+      </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
@@ -2086,8 +2168,12 @@
       <c r="M21" s="7">
         <v>13</v>
       </c>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
+      <c r="N21" s="7">
+        <v>13</v>
+      </c>
+      <c r="O21" s="7">
+        <v>13</v>
+      </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
@@ -2173,7 +2259,7 @@
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="18">
-        <f t="shared" ref="E23:L23" si="0">SUM(E1:E21)</f>
+        <f t="shared" ref="E23:O23" si="0">SUM(E1:E21)</f>
         <v>0</v>
       </c>
       <c r="F23" s="18">
@@ -2204,13 +2290,22 @@
         <f t="shared" si="0"/>
         <v>44.5</v>
       </c>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
+      <c r="M23" s="18">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="N23" s="18">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="O23" s="18">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
       <c r="P23" s="18"/>
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
-      <c r="S23" s="24"/>
+      <c r="S23" s="23"/>
     </row>
     <row r="24" spans="1:20" ht="15.75">
       <c r="A24" s="19" t="s">
@@ -2261,37 +2356,37 @@
       <c r="R24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="S24" s="25" t="s">
+      <c r="S24" s="24" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:20">
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26" t="s">
+      <c r="G25" s="25"/>
+      <c r="H25" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26" t="s">
+      <c r="I25" s="25"/>
+      <c r="J25" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26" t="s">
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26" t="s">
+      <c r="N25" s="25"/>
+      <c r="O25" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26" t="s">
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
       <c r="T25" t="s">
         <v>82</v>
       </c>

--- a/Sprint 4/SysUt14 Gr 2 Burn up chart - holdes oppdatert av SM.xlsx
+++ b/Sprint 4/SysUt14 Gr 2 Burn up chart - holdes oppdatert av SM.xlsx
@@ -660,31 +660,34 @@
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75</c:v>
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="91608960"/>
-        <c:axId val="91610496"/>
+        <c:axId val="54561792"/>
+        <c:axId val="64611072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91608960"/>
+        <c:axId val="54561792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91610496"/>
+        <c:crossAx val="64611072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91610496"/>
+        <c:axId val="64611072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -694,7 +697,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91608960"/>
+        <c:crossAx val="54561792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -708,7 +711,7 @@
           <c:x val="0.85726259133462956"/>
           <c:y val="0.42329864488726682"/>
           <c:w val="0.1364510697882074"/>
-          <c:h val="0.15646062275472222"/>
+          <c:h val="0.15646062275472228"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -1103,7 +1106,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1221,7 +1224,9 @@
       <c r="O2" s="7">
         <v>5.5</v>
       </c>
-      <c r="P2" s="7"/>
+      <c r="P2" s="7">
+        <v>5.5</v>
+      </c>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="8"/>
@@ -1272,7 +1277,9 @@
       <c r="O3" s="7">
         <v>2</v>
       </c>
-      <c r="P3" s="7"/>
+      <c r="P3" s="7">
+        <v>2</v>
+      </c>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="8"/>
@@ -1323,7 +1330,9 @@
       <c r="O4" s="9">
         <v>2</v>
       </c>
-      <c r="P4" s="7"/>
+      <c r="P4" s="9">
+        <v>2</v>
+      </c>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="8"/>
@@ -1374,7 +1383,9 @@
       <c r="O5" s="9">
         <v>2.5</v>
       </c>
-      <c r="P5" s="7"/>
+      <c r="P5" s="9">
+        <v>2.5</v>
+      </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="8"/>
@@ -1423,7 +1434,9 @@
       <c r="O6" s="9">
         <v>2.5</v>
       </c>
-      <c r="P6" s="7"/>
+      <c r="P6" s="9">
+        <v>2.5</v>
+      </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="8"/>
@@ -1472,7 +1485,9 @@
       <c r="O7" s="9">
         <v>2</v>
       </c>
-      <c r="P7" s="7"/>
+      <c r="P7" s="9">
+        <v>2</v>
+      </c>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="8"/>
@@ -1521,9 +1536,11 @@
         <v>0</v>
       </c>
       <c r="O8" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="P8" s="7"/>
+        <v>3.5</v>
+      </c>
+      <c r="P8" s="9">
+        <v>3.5</v>
+      </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="8"/>
@@ -1572,7 +1589,9 @@
       <c r="O9" s="9">
         <v>1</v>
       </c>
-      <c r="P9" s="7"/>
+      <c r="P9" s="9">
+        <v>1</v>
+      </c>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="8"/>
@@ -1623,7 +1642,9 @@
       <c r="O10" s="7">
         <v>3</v>
       </c>
-      <c r="P10" s="7"/>
+      <c r="P10" s="7">
+        <v>3</v>
+      </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="8"/>
@@ -1672,7 +1693,9 @@
       <c r="O11" s="7">
         <v>3</v>
       </c>
-      <c r="P11" s="7"/>
+      <c r="P11" s="7">
+        <v>3</v>
+      </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="8"/>
@@ -1721,9 +1744,11 @@
         <v>0</v>
       </c>
       <c r="O12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="P12" s="7">
+        <v>1</v>
+      </c>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="8"/>
@@ -1770,9 +1795,11 @@
         <v>0</v>
       </c>
       <c r="O13" s="7">
-        <v>2</v>
-      </c>
-      <c r="P13" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="P13" s="7">
+        <v>4</v>
+      </c>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="8"/>
@@ -1819,9 +1846,11 @@
         <v>0</v>
       </c>
       <c r="O14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="P14" s="7">
+        <v>1</v>
+      </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="8"/>
@@ -1868,9 +1897,11 @@
         <v>0</v>
       </c>
       <c r="O15" s="7">
-        <v>0</v>
-      </c>
-      <c r="P15" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="P15" s="7">
+        <v>1</v>
+      </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="8"/>
@@ -1919,9 +1950,11 @@
         <v>5</v>
       </c>
       <c r="O16" s="7">
-        <v>5</v>
-      </c>
-      <c r="P16" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="P16" s="7">
+        <v>13</v>
+      </c>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="8"/>
@@ -1970,7 +2003,9 @@
       <c r="O17" s="7">
         <v>0</v>
       </c>
-      <c r="P17" s="7"/>
+      <c r="P17" s="7">
+        <v>0</v>
+      </c>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="8"/>
@@ -2021,7 +2056,9 @@
       <c r="O18" s="7">
         <v>10</v>
       </c>
-      <c r="P18" s="7"/>
+      <c r="P18" s="7">
+        <v>10</v>
+      </c>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="8"/>
@@ -2072,7 +2109,9 @@
       <c r="O19" s="7">
         <v>3</v>
       </c>
-      <c r="P19" s="7"/>
+      <c r="P19" s="7">
+        <v>3</v>
+      </c>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="8"/>
@@ -2123,7 +2162,9 @@
       <c r="O20" s="7">
         <v>16</v>
       </c>
-      <c r="P20" s="7"/>
+      <c r="P20" s="7">
+        <v>16</v>
+      </c>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="8"/>
@@ -2172,9 +2213,11 @@
         <v>13</v>
       </c>
       <c r="O21" s="7">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="P21" s="7">
+        <v>17</v>
+      </c>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="8"/>
@@ -2259,7 +2302,7 @@
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="18">
-        <f t="shared" ref="E23:O23" si="0">SUM(E1:E21)</f>
+        <f t="shared" ref="E23:P23" si="0">SUM(E1:E21)</f>
         <v>0</v>
       </c>
       <c r="F23" s="18">
@@ -2300,9 +2343,12 @@
       </c>
       <c r="O23" s="18">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="P23" s="18"/>
+        <v>93</v>
+      </c>
+      <c r="P23" s="18">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
       <c r="S23" s="23"/>

--- a/Sprint 4/SysUt14 Gr 2 Burn up chart - holdes oppdatert av SM.xlsx
+++ b/Sprint 4/SysUt14 Gr 2 Burn up chart - holdes oppdatert av SM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
@@ -11,7 +11,7 @@
     <sheet name="Ark2" sheetId="2" r:id="rId2"/>
     <sheet name="Ark3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -270,8 +270,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,8 +534,19 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="nb-NO"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -550,6 +561,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -613,6 +625,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -663,41 +676,58 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>93</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="54561792"/>
-        <c:axId val="64611072"/>
+        <c:smooth val="0"/>
+        <c:axId val="85896192"/>
+        <c:axId val="85897984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="54561792"/>
+        <c:axId val="85896192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64611072"/>
+        <c:crossAx val="85897984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64611072"/>
+        <c:axId val="85897984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54561792"/>
+        <c:crossAx val="85896192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -714,6 +744,7 @@
           <c:h val="0.15646062275472228"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -727,6 +758,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -890,6 +922,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -924,6 +957,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1099,17 +1133,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
@@ -1119,7 +1153,7 @@
     <col min="20" max="20" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75">
+    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -1178,7 +1212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75">
+    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
@@ -1231,7 +1265,7 @@
       <c r="R2" s="7"/>
       <c r="S2" s="8"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75">
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
@@ -1284,7 +1318,7 @@
       <c r="R3" s="7"/>
       <c r="S3" s="8"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75">
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -1337,7 +1371,7 @@
       <c r="R4" s="7"/>
       <c r="S4" s="8"/>
     </row>
-    <row r="5" spans="1:19" ht="15.75">
+    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
@@ -1384,13 +1418,13 @@
         <v>2.5</v>
       </c>
       <c r="P5" s="9">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="8"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75">
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="22" t="s">
         <v>66</v>
@@ -1441,7 +1475,7 @@
       <c r="R6" s="7"/>
       <c r="S6" s="8"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75">
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="22" t="s">
         <v>67</v>
@@ -1492,7 +1526,7 @@
       <c r="R7" s="7"/>
       <c r="S7" s="8"/>
     </row>
-    <row r="8" spans="1:19" ht="15.75">
+    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
@@ -1545,7 +1579,7 @@
       <c r="R8" s="7"/>
       <c r="S8" s="8"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75">
+    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="22" t="s">
         <v>40</v>
@@ -1596,7 +1630,7 @@
       <c r="R9" s="7"/>
       <c r="S9" s="8"/>
     </row>
-    <row r="10" spans="1:19" ht="15.75">
+    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
@@ -1649,7 +1683,7 @@
       <c r="R10" s="7"/>
       <c r="S10" s="8"/>
     </row>
-    <row r="11" spans="1:19" ht="15.75">
+    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="22" t="s">
         <v>32</v>
@@ -1700,7 +1734,7 @@
       <c r="R11" s="7"/>
       <c r="S11" s="8"/>
     </row>
-    <row r="12" spans="1:19" ht="15.75">
+    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>51</v>
       </c>
@@ -1753,7 +1787,7 @@
       <c r="R12" s="7"/>
       <c r="S12" s="8"/>
     </row>
-    <row r="13" spans="1:19" ht="15.75">
+    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="22" t="s">
         <v>44</v>
@@ -1804,7 +1838,7 @@
       <c r="R13" s="7"/>
       <c r="S13" s="8"/>
     </row>
-    <row r="14" spans="1:19" ht="15.75">
+    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="22" t="s">
         <v>45</v>
@@ -1855,7 +1889,7 @@
       <c r="R14" s="7"/>
       <c r="S14" s="8"/>
     </row>
-    <row r="15" spans="1:19" ht="15.75">
+    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="22" t="s">
         <v>45</v>
@@ -1906,7 +1940,7 @@
       <c r="R15" s="7"/>
       <c r="S15" s="8"/>
     </row>
-    <row r="16" spans="1:19" ht="15.75">
+    <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>50</v>
       </c>
@@ -1953,13 +1987,13 @@
         <v>13</v>
       </c>
       <c r="P16" s="7">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="8"/>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="22" t="s">
         <v>48</v>
@@ -2010,7 +2044,7 @@
       <c r="R17" s="7"/>
       <c r="S17" s="8"/>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>70</v>
       </c>
@@ -2063,7 +2097,7 @@
       <c r="R18" s="7"/>
       <c r="S18" s="8"/>
     </row>
-    <row r="19" spans="1:20" ht="15.75">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>53</v>
       </c>
@@ -2116,7 +2150,7 @@
       <c r="R19" s="7"/>
       <c r="S19" s="8"/>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>58</v>
       </c>
@@ -2169,7 +2203,7 @@
       <c r="R20" s="7"/>
       <c r="S20" s="8"/>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>59</v>
       </c>
@@ -2216,13 +2250,13 @@
         <v>17</v>
       </c>
       <c r="P21" s="7">
-        <v>17</v>
+        <v>20.5</v>
       </c>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="8"/>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>15</v>
       </c>
@@ -2294,7 +2328,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>16</v>
       </c>
@@ -2347,13 +2381,13 @@
       </c>
       <c r="P23" s="18">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
       <c r="S23" s="23"/>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>36</v>
       </c>
@@ -2406,7 +2440,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F25" s="25" t="s">
         <v>81</v>
       </c>
@@ -2445,24 +2479,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sprint 4/SysUt14 Gr 2 Burn up chart - holdes oppdatert av SM.xlsx
+++ b/Sprint 4/SysUt14 Gr 2 Burn up chart - holdes oppdatert av SM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
@@ -11,7 +11,7 @@
     <sheet name="Ark2" sheetId="2" r:id="rId2"/>
     <sheet name="Ark3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -270,8 +270,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,7 +438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -510,6 +510,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,19 +537,8 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="nb-NO"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -561,7 +553,6 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -625,7 +616,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -676,58 +666,51 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>113</c:v>
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>124.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>124.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>124.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="85896192"/>
-        <c:axId val="85897984"/>
+        <c:axId val="82351616"/>
+        <c:axId val="82353152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85896192"/>
+        <c:axId val="82351616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85897984"/>
+        <c:crossAx val="82353152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85897984"/>
+        <c:axId val="82353152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85896192"/>
+        <c:crossAx val="82351616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -741,10 +724,9 @@
           <c:x val="0.85726259133462956"/>
           <c:y val="0.42329864488726682"/>
           <c:w val="0.1364510697882074"/>
-          <c:h val="0.15646062275472228"/>
+          <c:h val="0.15646062275472231"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -758,7 +740,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -922,7 +903,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -957,7 +937,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1133,17 +1112,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
@@ -1153,7 +1132,7 @@
     <col min="20" max="20" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15.75">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -1212,7 +1191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15.75">
       <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
@@ -1261,11 +1240,17 @@
       <c r="P2" s="7">
         <v>5.5</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="8"/>
+      <c r="Q2" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="R2" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="S2" s="8">
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="15.75">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
@@ -1314,11 +1299,17 @@
       <c r="P3" s="7">
         <v>2</v>
       </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="8"/>
+      <c r="Q3" s="7">
+        <v>2</v>
+      </c>
+      <c r="R3" s="7">
+        <v>2</v>
+      </c>
+      <c r="S3" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15.75">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -1367,11 +1358,17 @@
       <c r="P4" s="9">
         <v>2</v>
       </c>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="8"/>
+      <c r="Q4" s="9">
+        <v>2</v>
+      </c>
+      <c r="R4" s="9">
+        <v>2</v>
+      </c>
+      <c r="S4" s="27">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15.75">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
@@ -1420,11 +1417,17 @@
       <c r="P5" s="9">
         <v>8</v>
       </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="8"/>
+      <c r="Q5" s="9">
+        <v>8</v>
+      </c>
+      <c r="R5" s="9">
+        <v>8</v>
+      </c>
+      <c r="S5" s="27">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15.75">
       <c r="A6" s="5"/>
       <c r="B6" s="22" t="s">
         <v>66</v>
@@ -1471,11 +1474,17 @@
       <c r="P6" s="9">
         <v>2.5</v>
       </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="8"/>
+      <c r="Q6" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="R6" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="S6" s="27">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15.75">
       <c r="A7" s="5"/>
       <c r="B7" s="22" t="s">
         <v>67</v>
@@ -1522,11 +1531,17 @@
       <c r="P7" s="9">
         <v>2</v>
       </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="8"/>
+      <c r="Q7" s="9">
+        <v>3</v>
+      </c>
+      <c r="R7" s="9">
+        <v>3</v>
+      </c>
+      <c r="S7" s="27">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15.75">
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
@@ -1575,11 +1590,17 @@
       <c r="P8" s="9">
         <v>3.5</v>
       </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="8"/>
+      <c r="Q8" s="9">
+        <v>4</v>
+      </c>
+      <c r="R8" s="9">
+        <v>4</v>
+      </c>
+      <c r="S8" s="27">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15.75">
       <c r="A9" s="5"/>
       <c r="B9" s="22" t="s">
         <v>40</v>
@@ -1626,11 +1647,17 @@
       <c r="P9" s="9">
         <v>1</v>
       </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="8"/>
+      <c r="Q9" s="9">
+        <v>1</v>
+      </c>
+      <c r="R9" s="9">
+        <v>1</v>
+      </c>
+      <c r="S9" s="27">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15.75">
       <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
@@ -1679,11 +1706,17 @@
       <c r="P10" s="7">
         <v>3</v>
       </c>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="8"/>
+      <c r="Q10" s="7">
+        <v>3</v>
+      </c>
+      <c r="R10" s="7">
+        <v>3</v>
+      </c>
+      <c r="S10" s="8">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15.75">
       <c r="A11" s="5"/>
       <c r="B11" s="22" t="s">
         <v>32</v>
@@ -1730,11 +1763,17 @@
       <c r="P11" s="7">
         <v>3</v>
       </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="8"/>
+      <c r="Q11" s="7">
+        <v>3</v>
+      </c>
+      <c r="R11" s="7">
+        <v>3</v>
+      </c>
+      <c r="S11" s="8">
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15.75">
       <c r="A12" s="5" t="s">
         <v>51</v>
       </c>
@@ -1783,11 +1822,17 @@
       <c r="P12" s="7">
         <v>1</v>
       </c>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="8"/>
+      <c r="Q12" s="7">
+        <v>1</v>
+      </c>
+      <c r="R12" s="7">
+        <v>1</v>
+      </c>
+      <c r="S12" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15.75">
       <c r="A13" s="5"/>
       <c r="B13" s="22" t="s">
         <v>44</v>
@@ -1834,11 +1879,17 @@
       <c r="P13" s="7">
         <v>4</v>
       </c>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="8"/>
+      <c r="Q13" s="7">
+        <v>4</v>
+      </c>
+      <c r="R13" s="7">
+        <v>4</v>
+      </c>
+      <c r="S13" s="8">
+        <v>4</v>
+      </c>
     </row>
-    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="15.75">
       <c r="A14" s="5"/>
       <c r="B14" s="22" t="s">
         <v>45</v>
@@ -1885,11 +1936,17 @@
       <c r="P14" s="7">
         <v>1</v>
       </c>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="8"/>
+      <c r="Q14" s="7">
+        <v>2</v>
+      </c>
+      <c r="R14" s="7">
+        <v>2</v>
+      </c>
+      <c r="S14" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="15.75">
       <c r="A15" s="5"/>
       <c r="B15" s="22" t="s">
         <v>45</v>
@@ -1936,11 +1993,17 @@
       <c r="P15" s="7">
         <v>1</v>
       </c>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="8"/>
+      <c r="Q15" s="7">
+        <v>2</v>
+      </c>
+      <c r="R15" s="7">
+        <v>2</v>
+      </c>
+      <c r="S15" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="15.75">
       <c r="A16" s="5" t="s">
         <v>50</v>
       </c>
@@ -1987,13 +2050,19 @@
         <v>13</v>
       </c>
       <c r="P16" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>16</v>
+      </c>
+      <c r="R16" s="7">
+        <v>16</v>
+      </c>
+      <c r="S16" s="8">
+        <v>16</v>
+      </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="15.75">
       <c r="A17" s="5"/>
       <c r="B17" s="22" t="s">
         <v>48</v>
@@ -2038,13 +2107,19 @@
         <v>0</v>
       </c>
       <c r="P17" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>7</v>
+      </c>
+      <c r="R17" s="7">
+        <v>7</v>
+      </c>
+      <c r="S17" s="8">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="15.75">
       <c r="A18" s="5" t="s">
         <v>70</v>
       </c>
@@ -2093,11 +2168,17 @@
       <c r="P18" s="7">
         <v>10</v>
       </c>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="8"/>
+      <c r="Q18" s="7">
+        <v>10</v>
+      </c>
+      <c r="R18" s="7">
+        <v>10</v>
+      </c>
+      <c r="S18" s="8">
+        <v>10</v>
+      </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="15.75">
       <c r="A19" s="5" t="s">
         <v>53</v>
       </c>
@@ -2146,11 +2227,17 @@
       <c r="P19" s="7">
         <v>3</v>
       </c>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="8"/>
+      <c r="Q19" s="7">
+        <v>4</v>
+      </c>
+      <c r="R19" s="7">
+        <v>4</v>
+      </c>
+      <c r="S19" s="8">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="15.75">
       <c r="A20" s="5" t="s">
         <v>58</v>
       </c>
@@ -2199,11 +2286,17 @@
       <c r="P20" s="7">
         <v>16</v>
       </c>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="8"/>
+      <c r="Q20" s="7">
+        <v>24</v>
+      </c>
+      <c r="R20" s="7">
+        <v>24</v>
+      </c>
+      <c r="S20" s="8">
+        <v>24</v>
+      </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="15.75">
       <c r="A21" s="5" t="s">
         <v>59</v>
       </c>
@@ -2252,11 +2345,17 @@
       <c r="P21" s="7">
         <v>20.5</v>
       </c>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="8"/>
+      <c r="Q21" s="7">
+        <v>20.5</v>
+      </c>
+      <c r="R21" s="7">
+        <v>20.5</v>
+      </c>
+      <c r="S21" s="8">
+        <v>20.5</v>
+      </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="15.75">
       <c r="A22" s="11" t="s">
         <v>15</v>
       </c>
@@ -2328,7 +2427,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="15.75">
       <c r="A23" s="16" t="s">
         <v>16</v>
       </c>
@@ -2336,7 +2435,7 @@
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="18">
-        <f t="shared" ref="E23:P23" si="0">SUM(E1:E21)</f>
+        <f t="shared" ref="E23:S23" si="0">SUM(E1:E21)</f>
         <v>0</v>
       </c>
       <c r="F23" s="18">
@@ -2381,13 +2480,22 @@
       </c>
       <c r="P23" s="18">
         <f t="shared" si="0"/>
-        <v>113</v>
-      </c>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="23"/>
+        <v>112</v>
+      </c>
+      <c r="Q23" s="18">
+        <f t="shared" si="0"/>
+        <v>124.5</v>
+      </c>
+      <c r="R23" s="18">
+        <f t="shared" si="0"/>
+        <v>124.5</v>
+      </c>
+      <c r="S23" s="23">
+        <f t="shared" si="0"/>
+        <v>124.5</v>
+      </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="15.75">
       <c r="A24" s="19" t="s">
         <v>36</v>
       </c>
@@ -2440,7 +2548,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="F25" s="25" t="s">
         <v>81</v>
       </c>
@@ -2479,24 +2587,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sprint 4/SysUt14 Gr 2 Burn up chart - holdes oppdatert av SM.xlsx
+++ b/Sprint 4/SysUt14 Gr 2 Burn up chart - holdes oppdatert av SM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
   <si>
     <t>Start</t>
   </si>
@@ -265,13 +265,16 @@
   </si>
   <si>
     <t>Dager vi forventer burn up</t>
+  </si>
+  <si>
+    <t>SysUt14 Gr 2 Burn up chart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +315,19 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -319,12 +335,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -341,6 +351,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,24 +454,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -467,43 +474,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -512,6 +487,57 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -572,16 +598,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.222222222222214</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.222222222222214</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73.888888888888886</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>73.888888888888886</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>95</c:v>
@@ -593,16 +619,16 @@
                   <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>126.66666666666667</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>126.66666666666667</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>158.33333333333334</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>158.33333333333334</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>190</c:v>
@@ -681,26 +707,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="82351616"/>
-        <c:axId val="82353152"/>
+        <c:axId val="115296896"/>
+        <c:axId val="116361472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82351616"/>
+        <c:axId val="115296896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82353152"/>
+        <c:crossAx val="116361472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82353152"/>
+        <c:axId val="116361472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -710,7 +735,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82351616"/>
+        <c:crossAx val="115296896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -724,7 +749,7 @@
           <c:x val="0.85726259133462956"/>
           <c:y val="0.42329864488726682"/>
           <c:w val="0.1364510697882074"/>
-          <c:h val="0.15646062275472231"/>
+          <c:h val="0.15646062275472233"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -756,13 +781,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>197938</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>104384</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>147440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1116,10 +1141,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1133,1455 +1158,1509 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="G1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="4">
         <v>5</v>
       </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
         <v>4</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="4">
         <v>4</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="4">
         <v>5.5</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="4">
         <v>5.5</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="4">
         <v>5.5</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="4">
         <v>5.5</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="4">
         <v>5.5</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="4">
         <v>5.5</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="4">
         <v>5.5</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="4">
         <v>5.5</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="4">
         <v>5.5</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="4">
         <v>5.5</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="4">
         <v>5.5</v>
       </c>
-      <c r="S2" s="8">
+      <c r="S2" s="5">
         <v>5.5</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="7">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>2</v>
-      </c>
-      <c r="N3" s="7">
-        <v>2</v>
-      </c>
-      <c r="O3" s="7">
-        <v>2</v>
-      </c>
-      <c r="P3" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>2</v>
-      </c>
-      <c r="R3" s="7">
-        <v>2</v>
-      </c>
-      <c r="S3" s="8">
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>2</v>
+      </c>
+      <c r="N3" s="4">
+        <v>2</v>
+      </c>
+      <c r="O3" s="4">
+        <v>2</v>
+      </c>
+      <c r="P3" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>2</v>
+      </c>
+      <c r="R3" s="4">
+        <v>2</v>
+      </c>
+      <c r="S3" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="9">
-        <v>2</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
-        <v>2</v>
-      </c>
-      <c r="N4" s="9">
-        <v>2</v>
-      </c>
-      <c r="O4" s="9">
-        <v>2</v>
-      </c>
-      <c r="P4" s="9">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>2</v>
-      </c>
-      <c r="R4" s="9">
-        <v>2</v>
-      </c>
-      <c r="S4" s="27">
+      <c r="D4" s="6">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>2</v>
+      </c>
+      <c r="N4" s="6">
+        <v>2</v>
+      </c>
+      <c r="O4" s="6">
+        <v>2</v>
+      </c>
+      <c r="P4" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>2</v>
+      </c>
+      <c r="R4" s="6">
+        <v>2</v>
+      </c>
+      <c r="S4" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <v>4</v>
       </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9">
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
         <v>2.5</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="6">
         <v>2.5</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="6">
         <v>2.5</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="6">
         <v>2.5</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="6">
         <v>2.5</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="6">
         <v>2.5</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="6">
         <v>2.5</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="6">
         <v>2.5</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="6">
         <v>8</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="6">
         <v>8</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="6">
         <v>8</v>
       </c>
-      <c r="S5" s="27">
+      <c r="S5" s="12">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.75">
-      <c r="A6" s="5"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="9">
-        <v>3</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0</v>
-      </c>
-      <c r="M6" s="9">
+      <c r="D6" s="6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
         <v>2.5</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="6">
         <v>2.5</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="6">
         <v>2.5</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="6">
         <v>2.5</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="6">
         <v>2.5</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="6">
         <v>2.5</v>
       </c>
-      <c r="S6" s="27">
+      <c r="S6" s="12">
         <v>2.5</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.75">
-      <c r="A7" s="5"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="9">
-        <v>3</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9">
-        <v>2</v>
-      </c>
-      <c r="G7" s="9">
-        <v>2</v>
-      </c>
-      <c r="H7" s="9">
-        <v>2</v>
-      </c>
-      <c r="I7" s="9">
-        <v>2</v>
-      </c>
-      <c r="J7" s="9">
-        <v>2</v>
-      </c>
-      <c r="K7" s="9">
-        <v>2</v>
-      </c>
-      <c r="L7" s="9">
-        <v>2</v>
-      </c>
-      <c r="M7" s="9">
-        <v>2</v>
-      </c>
-      <c r="N7" s="9">
-        <v>2</v>
-      </c>
-      <c r="O7" s="9">
-        <v>2</v>
-      </c>
-      <c r="P7" s="9">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>3</v>
-      </c>
-      <c r="R7" s="9">
-        <v>3</v>
-      </c>
-      <c r="S7" s="27">
+      <c r="D7" s="6">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2</v>
+      </c>
+      <c r="I7" s="6">
+        <v>2</v>
+      </c>
+      <c r="J7" s="6">
+        <v>2</v>
+      </c>
+      <c r="K7" s="6">
+        <v>2</v>
+      </c>
+      <c r="L7" s="6">
+        <v>2</v>
+      </c>
+      <c r="M7" s="6">
+        <v>2</v>
+      </c>
+      <c r="N7" s="6">
+        <v>2</v>
+      </c>
+      <c r="O7" s="6">
+        <v>2</v>
+      </c>
+      <c r="P7" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>3</v>
+      </c>
+      <c r="R7" s="6">
+        <v>3</v>
+      </c>
+      <c r="S7" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="6">
         <v>10</v>
       </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0</v>
-      </c>
-      <c r="N8" s="9">
-        <v>0</v>
-      </c>
-      <c r="O8" s="9">
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
         <v>3.5</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="6">
         <v>3.5</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="6">
         <v>4</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="6">
         <v>4</v>
       </c>
-      <c r="S8" s="27">
+      <c r="S8" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75">
-      <c r="A9" s="5"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="6">
         <v>1</v>
       </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
         <v>1</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="6">
         <v>1</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="6">
         <v>1</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="6">
         <v>1</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="6">
         <v>1</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="6">
         <v>1</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="6">
         <v>1</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="6">
         <v>1</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="6">
         <v>1</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="6">
         <v>1</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="6">
         <v>1</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="6">
         <v>1</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="6">
         <v>1</v>
       </c>
-      <c r="S9" s="27">
+      <c r="S9" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="4">
         <v>2.5</v>
       </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>2</v>
-      </c>
-      <c r="G10" s="7">
-        <v>2</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>3</v>
-      </c>
-      <c r="J10" s="7">
-        <v>3</v>
-      </c>
-      <c r="K10" s="7">
-        <v>3</v>
-      </c>
-      <c r="L10" s="7">
-        <v>3</v>
-      </c>
-      <c r="M10" s="7">
-        <v>3</v>
-      </c>
-      <c r="N10" s="7">
-        <v>3</v>
-      </c>
-      <c r="O10" s="7">
-        <v>3</v>
-      </c>
-      <c r="P10" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>3</v>
-      </c>
-      <c r="R10" s="7">
-        <v>3</v>
-      </c>
-      <c r="S10" s="8">
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4">
+        <v>3</v>
+      </c>
+      <c r="I10" s="4">
+        <v>3</v>
+      </c>
+      <c r="J10" s="4">
+        <v>3</v>
+      </c>
+      <c r="K10" s="4">
+        <v>3</v>
+      </c>
+      <c r="L10" s="4">
+        <v>3</v>
+      </c>
+      <c r="M10" s="4">
+        <v>3</v>
+      </c>
+      <c r="N10" s="4">
+        <v>3</v>
+      </c>
+      <c r="O10" s="4">
+        <v>3</v>
+      </c>
+      <c r="P10" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>3</v>
+      </c>
+      <c r="R10" s="4">
+        <v>3</v>
+      </c>
+      <c r="S10" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75">
-      <c r="A11" s="5"/>
-      <c r="B11" s="22" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="4">
         <v>2.5</v>
       </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>2</v>
-      </c>
-      <c r="G11" s="7">
-        <v>2</v>
-      </c>
-      <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>3</v>
-      </c>
-      <c r="J11" s="7">
-        <v>3</v>
-      </c>
-      <c r="K11" s="7">
-        <v>3</v>
-      </c>
-      <c r="L11" s="7">
-        <v>3</v>
-      </c>
-      <c r="M11" s="7">
-        <v>3</v>
-      </c>
-      <c r="N11" s="7">
-        <v>3</v>
-      </c>
-      <c r="O11" s="7">
-        <v>3</v>
-      </c>
-      <c r="P11" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>3</v>
-      </c>
-      <c r="R11" s="7">
-        <v>3</v>
-      </c>
-      <c r="S11" s="8">
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <v>3</v>
+      </c>
+      <c r="J11" s="4">
+        <v>3</v>
+      </c>
+      <c r="K11" s="4">
+        <v>3</v>
+      </c>
+      <c r="L11" s="4">
+        <v>3</v>
+      </c>
+      <c r="M11" s="4">
+        <v>3</v>
+      </c>
+      <c r="N11" s="4">
+        <v>3</v>
+      </c>
+      <c r="O11" s="4">
+        <v>3</v>
+      </c>
+      <c r="P11" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>3</v>
+      </c>
+      <c r="R11" s="4">
+        <v>3</v>
+      </c>
+      <c r="S11" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="4">
         <v>2.5</v>
       </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7">
-        <v>0</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7">
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
         <v>1</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="4">
         <v>1</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="4">
         <v>1</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="4">
         <v>1</v>
       </c>
-      <c r="S12" s="8">
+      <c r="S12" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.75">
-      <c r="A13" s="5"/>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="4">
         <v>2.5</v>
       </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7">
-        <v>0</v>
-      </c>
-      <c r="K13" s="7">
-        <v>0</v>
-      </c>
-      <c r="L13" s="7">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7">
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
         <v>4</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="4">
         <v>4</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q13" s="4">
         <v>4</v>
       </c>
-      <c r="R13" s="7">
+      <c r="R13" s="4">
         <v>4</v>
       </c>
-      <c r="S13" s="8">
+      <c r="S13" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.75">
-      <c r="A14" s="5"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="4">
         <v>5</v>
       </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7">
-        <v>0</v>
-      </c>
-      <c r="K14" s="7">
-        <v>0</v>
-      </c>
-      <c r="L14" s="7">
-        <v>0</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7">
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
         <v>1</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="4">
         <v>1</v>
       </c>
-      <c r="Q14" s="7">
-        <v>2</v>
-      </c>
-      <c r="R14" s="7">
-        <v>2</v>
-      </c>
-      <c r="S14" s="8">
+      <c r="Q14" s="4">
+        <v>2</v>
+      </c>
+      <c r="R14" s="4">
+        <v>2</v>
+      </c>
+      <c r="S14" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75">
-      <c r="A15" s="5"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="4">
         <v>5</v>
       </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7">
-        <v>0</v>
-      </c>
-      <c r="K15" s="7">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7">
-        <v>0</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7">
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
         <v>1</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="4">
         <v>1</v>
       </c>
-      <c r="Q15" s="7">
-        <v>2</v>
-      </c>
-      <c r="R15" s="7">
-        <v>2</v>
-      </c>
-      <c r="S15" s="8">
+      <c r="Q15" s="4">
+        <v>2</v>
+      </c>
+      <c r="R15" s="4">
+        <v>2</v>
+      </c>
+      <c r="S15" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="4">
         <v>20</v>
       </c>
-      <c r="E16" s="7">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2</v>
-      </c>
-      <c r="J16" s="7">
-        <v>2</v>
-      </c>
-      <c r="K16" s="7">
-        <v>2</v>
-      </c>
-      <c r="L16" s="7">
-        <v>2</v>
-      </c>
-      <c r="M16" s="7">
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2</v>
+      </c>
+      <c r="I16" s="4">
+        <v>2</v>
+      </c>
+      <c r="J16" s="4">
+        <v>2</v>
+      </c>
+      <c r="K16" s="4">
+        <v>2</v>
+      </c>
+      <c r="L16" s="4">
+        <v>2</v>
+      </c>
+      <c r="M16" s="4">
         <v>5</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="4">
         <v>5</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="4">
         <v>13</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="4">
         <v>16</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="4">
         <v>16</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R16" s="4">
         <v>16</v>
       </c>
-      <c r="S16" s="8">
+      <c r="S16" s="5">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
-      <c r="A17" s="5"/>
-      <c r="B17" s="22" t="s">
+    <row r="17" spans="1:19" ht="15.75">
+      <c r="A17" s="2"/>
+      <c r="B17" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="4">
         <v>20</v>
       </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7">
-        <v>0</v>
-      </c>
-      <c r="K17" s="7">
-        <v>0</v>
-      </c>
-      <c r="L17" s="7">
-        <v>0</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7">
-        <v>0</v>
-      </c>
-      <c r="P17" s="7">
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
         <v>7</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="4">
         <v>7</v>
       </c>
-      <c r="R17" s="7">
+      <c r="R17" s="4">
         <v>7</v>
       </c>
-      <c r="S17" s="8">
+      <c r="S17" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:19" ht="15.75">
+      <c r="A18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="4">
         <v>20</v>
       </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
         <v>1.5</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="4">
         <v>1.5</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="4">
         <v>1.5</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="4">
         <v>1.5</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="4">
         <v>1.5</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="4">
         <v>5.5</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="4">
         <v>5.5</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="4">
         <v>10</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="4">
         <v>10</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Q18" s="4">
         <v>10</v>
       </c>
-      <c r="R18" s="7">
+      <c r="R18" s="4">
         <v>10</v>
       </c>
-      <c r="S18" s="8">
+      <c r="S18" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:19" ht="15.75">
+      <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="4">
         <v>40</v>
       </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
-        <v>3</v>
-      </c>
-      <c r="G19" s="7">
-        <v>3</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3</v>
-      </c>
-      <c r="J19" s="7">
-        <v>3</v>
-      </c>
-      <c r="K19" s="7">
-        <v>3</v>
-      </c>
-      <c r="L19" s="7">
-        <v>3</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3</v>
-      </c>
-      <c r="O19" s="7">
-        <v>3</v>
-      </c>
-      <c r="P19" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q19" s="7">
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>3</v>
+      </c>
+      <c r="G19" s="4">
+        <v>3</v>
+      </c>
+      <c r="H19" s="4">
+        <v>3</v>
+      </c>
+      <c r="I19" s="4">
+        <v>3</v>
+      </c>
+      <c r="J19" s="4">
+        <v>3</v>
+      </c>
+      <c r="K19" s="4">
+        <v>3</v>
+      </c>
+      <c r="L19" s="4">
+        <v>3</v>
+      </c>
+      <c r="M19" s="4">
+        <v>3</v>
+      </c>
+      <c r="N19" s="4">
+        <v>3</v>
+      </c>
+      <c r="O19" s="4">
+        <v>3</v>
+      </c>
+      <c r="P19" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="4">
         <v>4</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R19" s="4">
         <v>4</v>
       </c>
-      <c r="S19" s="8">
+      <c r="S19" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:19" ht="15.75">
+      <c r="A20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="4">
         <v>20</v>
       </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
         <v>4</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="4">
         <v>4</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="4">
         <v>14</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="4">
         <v>16</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="4">
         <v>16</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="4">
         <v>16</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="4">
         <v>16</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="4">
         <v>16</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="4">
         <v>16</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="4">
         <v>16</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="4">
         <v>16</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="Q20" s="4">
         <v>24</v>
       </c>
-      <c r="R20" s="7">
+      <c r="R20" s="4">
         <v>24</v>
       </c>
-      <c r="S20" s="8">
+      <c r="S20" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:19" ht="15.75">
+      <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="4">
         <v>20</v>
       </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7">
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
         <v>4</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="4">
         <v>4</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="4">
         <v>5</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="4">
         <v>5</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="4">
         <v>5</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="4">
         <v>5</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="4">
         <v>5</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="4">
         <v>13</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="4">
         <v>13</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="4">
         <v>17</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="4">
         <v>20.5</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="Q21" s="4">
         <v>20.5</v>
       </c>
-      <c r="R21" s="7">
+      <c r="R21" s="4">
         <v>20.5</v>
       </c>
-      <c r="S21" s="8">
+      <c r="S21" s="5">
         <v>20.5</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:19" ht="15.75">
+      <c r="A22" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="21" t="s">
+      <c r="B22" s="17"/>
+      <c r="C22" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="19">
         <f>SUM(D2:D21)</f>
         <v>190</v>
       </c>
-      <c r="E22" s="14">
-        <v>0</v>
-      </c>
-      <c r="F22" s="14">
+      <c r="E22" s="20">
+        <v>0</v>
+      </c>
+      <c r="F22" s="20">
         <f>(H22-$D$22/6)</f>
-        <v>42.222222222222214</v>
-      </c>
-      <c r="G22" s="14">
+        <v>42</v>
+      </c>
+      <c r="G22" s="20">
         <f>(F22)</f>
-        <v>42.222222222222214</v>
-      </c>
-      <c r="H22" s="14">
+        <v>42</v>
+      </c>
+      <c r="H22" s="20">
         <f>(J22-$M$22/6)</f>
-        <v>73.888888888888886</v>
-      </c>
-      <c r="I22" s="14">
+        <v>73</v>
+      </c>
+      <c r="I22" s="20">
         <f>(H22)</f>
-        <v>73.888888888888886</v>
-      </c>
-      <c r="J22" s="14">
+        <v>73</v>
+      </c>
+      <c r="J22" s="20">
         <f>(M22-$D$22/6)</f>
         <v>95</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="20">
         <f>(J22)</f>
         <v>95</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L22" s="20">
         <f>(J22)</f>
         <v>95</v>
       </c>
-      <c r="M22" s="14">
+      <c r="M22" s="20">
         <f>(O22-$D$22/6)</f>
-        <v>126.66666666666667</v>
-      </c>
-      <c r="N22" s="14">
+        <v>126</v>
+      </c>
+      <c r="N22" s="20">
         <f>(M22)</f>
-        <v>126.66666666666667</v>
-      </c>
-      <c r="O22" s="14">
+        <v>126</v>
+      </c>
+      <c r="O22" s="20">
         <f>(Q22-$D$22/6)</f>
-        <v>158.33333333333334</v>
-      </c>
-      <c r="P22" s="14">
+        <v>158</v>
+      </c>
+      <c r="P22" s="20">
         <f>(O22)</f>
-        <v>158.33333333333334</v>
-      </c>
-      <c r="Q22" s="14">
+        <v>158</v>
+      </c>
+      <c r="Q22" s="20">
         <f>(D22)</f>
         <v>190</v>
       </c>
-      <c r="R22" s="14">
+      <c r="R22" s="20">
         <f>(Q22)</f>
         <v>190</v>
       </c>
-      <c r="S22" s="15">
+      <c r="S22" s="21">
         <f>(Q22)</f>
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75">
-      <c r="A23" s="16" t="s">
+    <row r="23" spans="1:19" ht="15.75">
+      <c r="A23" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24">
         <f t="shared" ref="E23:S23" si="0">SUM(E1:E21)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="24">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="24">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="24">
         <f t="shared" si="0"/>
         <v>42.5</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="24">
         <f t="shared" si="0"/>
         <v>44.5</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J23" s="24">
         <f t="shared" si="0"/>
         <v>44.5</v>
       </c>
-      <c r="K23" s="18">
+      <c r="K23" s="24">
         <f t="shared" si="0"/>
         <v>44.5</v>
       </c>
-      <c r="L23" s="18">
+      <c r="L23" s="24">
         <f t="shared" si="0"/>
         <v>44.5</v>
       </c>
-      <c r="M23" s="18">
+      <c r="M23" s="24">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="N23" s="18">
+      <c r="N23" s="24">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="O23" s="18">
+      <c r="O23" s="24">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="P23" s="18">
+      <c r="P23" s="24">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
-      <c r="Q23" s="18">
+      <c r="Q23" s="24">
         <f t="shared" si="0"/>
         <v>124.5</v>
       </c>
-      <c r="R23" s="18">
+      <c r="R23" s="24">
         <f t="shared" si="0"/>
         <v>124.5</v>
       </c>
-      <c r="S23" s="23">
+      <c r="S23" s="25">
         <f t="shared" si="0"/>
         <v>124.5</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
-      <c r="A24" s="19" t="s">
+    <row r="24" spans="1:19" ht="15.75">
+      <c r="A24" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="20"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="L24" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="M24" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="N24" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="O24" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="P24" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="Q24" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="R24" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="S24" s="24" t="s">
+      <c r="S24" s="28" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
-      <c r="F25" s="25" t="s">
+    <row r="25" spans="1:19" ht="15.75">
+      <c r="A25" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25" t="s">
+      <c r="G25" s="29"/>
+      <c r="H25" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25" t="s">
+      <c r="I25" s="29"/>
+      <c r="J25" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25" t="s">
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25" t="s">
+      <c r="N25" s="29"/>
+      <c r="O25" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25" t="s">
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" t="s">
-        <v>82</v>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+    </row>
+    <row r="54" spans="1:1" ht="15.75">
+      <c r="A54" s="26" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="51" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="47" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
